--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_4_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_4_sawtooth_0_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.427292268663884, 8.74034369490529]</t>
+          <t>[4.3619097694546785, 8.805726194114495]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.183947410751898e-09</v>
+        <v>1.127610782525323e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>4.183947410751898e-09</v>
+        <v>1.127610782525323e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-1.38368445203154</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.7736318885131555, -0.9937370155499243]</t>
+          <t>[-1.7610529389492324, -1.0063159651138474]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.168465324496992e-11</v>
+        <v>2.597699833017941e-12</v>
       </c>
       <c r="R2" t="n">
-        <v>2.336930648993985e-11</v>
+        <v>5.195399666035883e-12</v>
       </c>
       <c r="S2" t="n">
         <v>9.308264105332487</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[8.019475659008704, 10.59705255165627]</t>
+          <t>[8.019973099640499, 10.596555111024475]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>5.040840840840868</v>
       </c>
       <c r="X2" t="n">
-        <v>3.62024024024026</v>
+        <v>3.666066066066087</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.461441441441476</v>
+        <v>6.41561561561565</v>
       </c>
     </row>
     <row r="3">
@@ -672,35 +672,35 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[5.014338502029958, 8.902878502025095]</t>
+          <t>[5.082948930786207, 8.834268073268845]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7.064793194899721e-12</v>
+        <v>1.297628671181883e-12</v>
       </c>
       <c r="N3" t="n">
-        <v>1.412958638979944e-11</v>
+        <v>2.595257342363766e-12</v>
       </c>
       <c r="O3" t="n">
         <v>0.08176317216550011</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.22013161736865428, 0.3836579616996545]</t>
+          <t>[-0.2327105669325764, 0.39623691126357663]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.5948533503111282</v>
+        <v>0.6096665997523454</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5948533503111282</v>
+        <v>0.6096665997523454</v>
       </c>
       <c r="S3" t="n">
         <v>8.978182230666775</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.789744521531519, 10.16661993980203]</t>
+          <t>[7.79031577900189, 10.16604868233166]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -713,10 +713,10 @@
         <v>23.09549549549571</v>
       </c>
       <c r="X3" t="n">
-        <v>21.97117117117138</v>
+        <v>21.92432432432453</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.21981981982005</v>
+        <v>24.26666666666689</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_4_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_4_sawtooth_0_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.3619097694546785, 8.805726194114495]</t>
+          <t>[4.383828198946889, 8.783807764622285]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.127610782525323e-08</v>
+        <v>8.162114095711104e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.127610782525323e-08</v>
+        <v>8.162114095711104e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.38368445203154</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[8.019973099640499, 10.596555111024475]</t>
+          <t>[8.020485617488667, 10.596042593176307]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -672,14 +672,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[5.082948930786207, 8.834268073268845]</t>
+          <t>[5.070189762777018, 8.847027241278035]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.297628671181883e-12</v>
+        <v>1.801669924361704e-12</v>
       </c>
       <c r="N3" t="n">
-        <v>2.595257342363766e-12</v>
+        <v>3.603339848723408e-12</v>
       </c>
       <c r="O3" t="n">
         <v>0.08176317216550011</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.79031577900189, 10.16604868233166]</t>
+          <t>[7.789141804770562, 10.167222656562988]</t>
         </is>
       </c>
       <c r="U3" t="n">
